--- a/Project Data.xlsx
+++ b/Project Data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carson Holland\Desktop\Computer Architecture Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carson Holland\Desktop\Spring 2022\Computer Architecture\Computer Architecture Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8664B-5E28-47B4-A61B-B2B5FA1CAB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BD1E18-B214-4038-8942-CFBAC3C5D00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D902FFAF-4A2D-476E-8EDF-524476670CED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D902FFAF-4A2D-476E-8EDF-524476670CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale.c" sheetId="1" r:id="rId1"/>
     <sheet name="Quicksort.cpp" sheetId="4" r:id="rId2"/>
     <sheet name="Ranksort.c" sheetId="5" r:id="rId3"/>
     <sheet name="Specs" sheetId="6" r:id="rId4"/>
+    <sheet name="Minecraft Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="31">
   <si>
     <t>Trial #1</t>
   </si>
@@ -111,12 +112,33 @@
   <si>
     <t>M1 Pro</t>
   </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>2020 (Robert)</t>
+  </si>
+  <si>
+    <t>2021 (Chris')</t>
+  </si>
+  <si>
+    <t>MILLISECONDS</t>
+  </si>
+  <si>
+    <t>2020 (Robert's)</t>
+  </si>
+  <si>
+    <t>2021 Chris'</t>
+  </si>
+  <si>
+    <t>(?TIME UNITS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +182,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,30 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -276,6 +297,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,8 +645,8 @@
   </sheetPr>
   <dimension ref="D2:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,79 +656,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:22" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="4">
+      <c r="D3" s="14">
         <v>2019</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="4">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="14">
         <v>2019</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
@@ -782,7 +830,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="e">
-        <f t="shared" ref="H7:H15" si="0">AVERAGE(E7:G7)</f>
+        <f t="shared" ref="H7:H14" si="0">AVERAGE(E7:G7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="1"/>
@@ -806,7 +854,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="e">
-        <f t="shared" ref="V7:V14" si="3">AVERAGE(S7:U7)</f>
+        <f t="shared" ref="V7:V12" si="3">AVERAGE(S7:U7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1008,115 +1056,115 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <v>256</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="e">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="e">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D17" s="5">
+      <c r="D17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="N17" s="15">
         <v>2020</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="N17" s="5">
-        <v>2020</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -1147,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>0</v>
@@ -1178,381 +1226,573 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="e">
+      <c r="E20" s="1">
+        <v>585.47</v>
+      </c>
+      <c r="F20" s="1">
+        <v>504.94</v>
+      </c>
+      <c r="G20" s="1">
+        <v>574.41999999999996</v>
+      </c>
+      <c r="H20" s="1">
         <f>AVERAGE(E20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="e">
+        <v>554.94333333333327</v>
+      </c>
+      <c r="I20" s="1">
+        <v>551.49</v>
+      </c>
+      <c r="J20" s="1">
+        <v>553.89</v>
+      </c>
+      <c r="K20" s="1">
+        <v>555.1</v>
+      </c>
+      <c r="L20" s="1">
         <f>AVERAGE(I20:K20)</f>
-        <v>#DIV/0!</v>
+        <v>553.49333333333334</v>
       </c>
       <c r="N20" s="1">
         <v>10</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="e">
+      <c r="O20" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="R20" s="1">
         <f>AVERAGE(O20:Q20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1" t="e">
+        <v>1.1566666666666665</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="V20" s="1">
         <f>AVERAGE(S20:U20)</f>
-        <v>#DIV/0!</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="e">
+      <c r="E21" s="1">
+        <v>306.61</v>
+      </c>
+      <c r="F21" s="1">
+        <v>312</v>
+      </c>
+      <c r="G21" s="1">
+        <v>303.48</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" ref="H21:H28" si="4">AVERAGE(E21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="e">
+        <v>307.36333333333334</v>
+      </c>
+      <c r="I21" s="1">
+        <v>301.45999999999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>296.42</v>
+      </c>
+      <c r="K21" s="1">
+        <v>303.64</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" ref="L21:L28" si="5">AVERAGE(I21:K21)</f>
-        <v>#DIV/0!</v>
+        <v>300.50666666666666</v>
       </c>
       <c r="N21" s="1">
         <v>25</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="e">
+      <c r="O21" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" ref="R21:R26" si="6">AVERAGE(O21:Q21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1" t="e">
+        <v>1.5033333333333332</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="V21" s="1">
         <f t="shared" ref="V21:V26" si="7">AVERAGE(S21:U21)</f>
-        <v>#DIV/0!</v>
+        <v>0.90666666666666662</v>
       </c>
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="e">
+      <c r="E22" s="1">
+        <v>188.88</v>
+      </c>
+      <c r="F22" s="1">
+        <v>203.22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>194.23</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="e">
+        <v>195.44333333333336</v>
+      </c>
+      <c r="I22" s="1">
+        <v>196.82</v>
+      </c>
+      <c r="J22" s="1">
+        <v>193.18</v>
+      </c>
+      <c r="K22" s="1">
+        <v>204.47</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>198.15666666666667</v>
       </c>
       <c r="N22" s="1">
         <v>50</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="e">
+      <c r="O22" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1" t="e">
+        <v>2.6733333333333333</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.3099999999999998</v>
       </c>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="e">
+      <c r="E23" s="1">
+        <v>152.99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>159.63</v>
+      </c>
+      <c r="G23" s="1">
+        <v>158.12</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="e">
+        <v>156.91333333333333</v>
+      </c>
+      <c r="I23" s="1">
+        <v>167.42</v>
+      </c>
+      <c r="J23" s="1">
+        <v>168.02</v>
+      </c>
+      <c r="K23" s="1">
+        <v>164.44</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>166.62666666666667</v>
       </c>
       <c r="N23" s="1">
         <v>100</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="e">
+      <c r="O23" s="1">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="P23" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1" t="e">
+        <v>8.6433333333333326</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="24" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>16</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="e">
+      <c r="E24" s="1">
+        <v>154.76</v>
+      </c>
+      <c r="F24" s="1">
+        <v>150.32</v>
+      </c>
+      <c r="G24" s="1">
+        <v>144.21</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="e">
+        <v>149.76333333333332</v>
+      </c>
+      <c r="I24" s="1">
+        <v>160.84</v>
+      </c>
+      <c r="J24" s="1">
+        <v>165.06</v>
+      </c>
+      <c r="K24" s="1">
+        <v>173.97</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>166.62333333333333</v>
       </c>
       <c r="N24" s="1">
         <v>250</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="e">
+      <c r="O24" s="1">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="P24" s="1">
+        <v>37.64</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>32.64</v>
+      </c>
+      <c r="R24" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1" t="e">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="S24" s="1">
+        <v>9.51</v>
+      </c>
+      <c r="T24" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="U24" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="V24" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>9.5566666666666666</v>
       </c>
     </row>
     <row r="25" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>32</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="e">
+      <c r="E25" s="1">
+        <v>150.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>148.25</v>
+      </c>
+      <c r="G25" s="1">
+        <v>151.81</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="e">
+        <v>150.02333333333334</v>
+      </c>
+      <c r="I25" s="1">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>162.22999999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>159.29</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="9">
+        <v>157.73999999999998</v>
+      </c>
+      <c r="N25" s="2">
         <v>500</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9" t="e">
+      <c r="O25" s="2">
+        <v>107.61</v>
+      </c>
+      <c r="P25" s="2">
+        <v>102.85</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>104.69</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9" t="e">
+        <v>105.05</v>
+      </c>
+      <c r="S25" s="2">
+        <v>116.42</v>
+      </c>
+      <c r="T25" s="2">
+        <v>123.17</v>
+      </c>
+      <c r="U25" s="2">
+        <v>124.78</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>121.45666666666666</v>
       </c>
     </row>
     <row r="26" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>64</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="e">
+      <c r="E26" s="1">
+        <v>153.72</v>
+      </c>
+      <c r="F26" s="1">
+        <v>143.25</v>
+      </c>
+      <c r="G26" s="1">
+        <v>143.74</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="e">
+        <v>146.90333333333334</v>
+      </c>
+      <c r="I26" s="1">
+        <v>155.85</v>
+      </c>
+      <c r="J26" s="1">
+        <v>162.66999999999999</v>
+      </c>
+      <c r="K26" s="1">
+        <v>155.9</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>158.13999999999999</v>
       </c>
       <c r="N26" s="1">
         <v>1000</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="e">
+      <c r="O26" s="1">
+        <v>575.54999999999995</v>
+      </c>
+      <c r="P26" s="1">
+        <v>587.98</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>588.51</v>
+      </c>
+      <c r="R26" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1" t="e">
+        <v>584.01333333333332</v>
+      </c>
+      <c r="S26" s="1">
+        <v>549.82000000000005</v>
+      </c>
+      <c r="T26" s="1">
+        <v>539.85</v>
+      </c>
+      <c r="U26" s="1">
+        <v>549.61</v>
+      </c>
+      <c r="V26" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>546.42666666666673</v>
       </c>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>128</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="e">
+      <c r="E27" s="1">
+        <v>147.16999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>149.28</v>
+      </c>
+      <c r="G27" s="1">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="e">
+        <v>148.75</v>
+      </c>
+      <c r="I27" s="1">
+        <v>155.46</v>
+      </c>
+      <c r="J27" s="1">
+        <v>154.97</v>
+      </c>
+      <c r="K27" s="1">
+        <v>160.33000000000001</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+        <v>156.91999999999999</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D28" s="9">
+      <c r="D28" s="2">
         <v>256</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="e">
+      <c r="E28" s="2">
+        <v>148.9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>163.32</v>
+      </c>
+      <c r="G28" s="2">
+        <v>154.16</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="e">
+        <v>155.46</v>
+      </c>
+      <c r="I28" s="2">
+        <v>164.13</v>
+      </c>
+      <c r="J28" s="2">
+        <v>157.04</v>
+      </c>
+      <c r="K28" s="2">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+        <v>161.10333333333332</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D31" s="2">
+      <c r="D31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="N31" s="11">
         <v>2021</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2">
-        <v>2021</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3" t="s">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
@@ -1583,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>0</v>
@@ -1614,338 +1854,532 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="e">
+      <c r="E34" s="1">
+        <v>548.16</v>
+      </c>
+      <c r="F34" s="1">
+        <v>531.9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>451.29</v>
+      </c>
+      <c r="H34" s="1">
         <f>AVERAGE(E34:G34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="e">
+        <v>510.45</v>
+      </c>
+      <c r="I34" s="1">
+        <v>535.70000000000005</v>
+      </c>
+      <c r="J34" s="1">
+        <v>548.70000000000005</v>
+      </c>
+      <c r="K34" s="1">
+        <v>545.42999999999995</v>
+      </c>
+      <c r="L34" s="1">
         <f>AVERAGE(I34:K34)</f>
-        <v>#DIV/0!</v>
+        <v>543.27666666666664</v>
       </c>
       <c r="N34" s="1">
         <v>10</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="e">
+      <c r="O34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="R34" s="1">
         <f>AVERAGE(O34:Q34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1" t="e">
+        <v>0.85</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="V34" s="1">
         <f>AVERAGE(S34:U34)</f>
-        <v>#DIV/0!</v>
+        <v>0.62333333333333329</v>
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="e">
+      <c r="E35" s="1">
+        <v>283.95</v>
+      </c>
+      <c r="F35" s="1">
+        <v>264.95</v>
+      </c>
+      <c r="G35" s="1">
+        <v>273.2</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" ref="H35:H42" si="8">AVERAGE(E35:G35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="e">
+        <v>274.0333333333333</v>
+      </c>
+      <c r="I35" s="1">
+        <v>306.42</v>
+      </c>
+      <c r="J35" s="1">
+        <v>314.33</v>
+      </c>
+      <c r="K35" s="1">
+        <v>317.48</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" ref="L35:L42" si="9">AVERAGE(I35:K35)</f>
-        <v>#DIV/0!</v>
+        <v>312.74333333333334</v>
       </c>
       <c r="N35" s="1">
         <v>25</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="e">
+      <c r="O35" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="R35" s="1">
         <f t="shared" ref="R35:R40" si="10">AVERAGE(O35:Q35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1" t="e">
+        <v>1.1733333333333331</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V35" s="1">
         <f t="shared" ref="V35:V40" si="11">AVERAGE(S35:U35)</f>
-        <v>#DIV/0!</v>
+        <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="e">
+      <c r="E36" s="1">
+        <v>155.66999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>160.63</v>
+      </c>
+      <c r="G36" s="1">
+        <v>154.72999999999999</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="e">
+        <v>157.01</v>
+      </c>
+      <c r="I36" s="1">
+        <v>180.55</v>
+      </c>
+      <c r="J36" s="1">
+        <v>170.65</v>
+      </c>
+      <c r="K36" s="1">
+        <v>175.58</v>
+      </c>
+      <c r="L36" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>175.59333333333336</v>
       </c>
       <c r="N36" s="1">
         <v>50</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="e">
+      <c r="O36" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="R36" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1" t="e">
+        <v>2.3266666666666667</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="V36" s="1">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.0066666666666666</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>8</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="e">
+      <c r="E37" s="1">
+        <v>96.95</v>
+      </c>
+      <c r="F37" s="1">
+        <v>96.25</v>
+      </c>
+      <c r="G37" s="1">
+        <v>95.58</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="e">
+        <v>96.259999999999991</v>
+      </c>
+      <c r="I37" s="1">
+        <v>111.33</v>
+      </c>
+      <c r="J37" s="1">
+        <v>111.29</v>
+      </c>
+      <c r="K37" s="1">
+        <v>123.83</v>
+      </c>
+      <c r="L37" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>115.48333333333333</v>
       </c>
       <c r="N37" s="1">
         <v>100</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="e">
+      <c r="O37" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="P37" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="R37" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1" t="e">
+        <v>6.8633333333333333</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="V37" s="1">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>16</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1" t="e">
+      <c r="E38" s="1">
+        <v>103.62</v>
+      </c>
+      <c r="F38" s="1">
+        <v>101.62</v>
+      </c>
+      <c r="G38" s="1">
+        <v>99.22</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="e">
+        <v>101.48666666666668</v>
+      </c>
+      <c r="I38" s="1">
+        <v>104.92</v>
+      </c>
+      <c r="J38" s="1">
+        <v>106.83</v>
+      </c>
+      <c r="K38" s="1">
+        <v>110.55</v>
+      </c>
+      <c r="L38" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>107.43333333333334</v>
       </c>
       <c r="N38" s="1">
         <v>250</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="e">
+      <c r="O38" s="1">
+        <v>24.53</v>
+      </c>
+      <c r="P38" s="1">
+        <v>23.24</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>23.99</v>
+      </c>
+      <c r="R38" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1" t="e">
+        <v>23.919999999999998</v>
+      </c>
+      <c r="S38" s="1">
+        <v>5</v>
+      </c>
+      <c r="T38" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="U38" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="V38" s="1">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>6.2966666666666669</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>32</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="e">
+      <c r="E39" s="1">
+        <v>94.48</v>
+      </c>
+      <c r="F39" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>104.82</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="e">
+        <v>106.23333333333333</v>
+      </c>
+      <c r="I39" s="1">
+        <v>111.6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>111.85</v>
+      </c>
+      <c r="K39" s="1">
+        <v>108.25</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="9">
+        <v>110.56666666666666</v>
+      </c>
+      <c r="N39" s="2">
         <v>500</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9" t="e">
+      <c r="O39" s="2">
+        <v>90.98</v>
+      </c>
+      <c r="P39" s="2">
+        <v>89.29</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>90.42</v>
+      </c>
+      <c r="R39" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9" t="e">
+        <v>90.23</v>
+      </c>
+      <c r="S39" s="2">
+        <v>107.65</v>
+      </c>
+      <c r="T39" s="2">
+        <v>108.91</v>
+      </c>
+      <c r="U39" s="2">
+        <v>109.12</v>
+      </c>
+      <c r="V39" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>108.56</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D40" s="1">
         <v>64</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1" t="e">
+      <c r="E40" s="1">
+        <v>107.73</v>
+      </c>
+      <c r="F40" s="1">
+        <v>87.54</v>
+      </c>
+      <c r="G40" s="1">
+        <v>92.44</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="e">
+        <v>95.90333333333335</v>
+      </c>
+      <c r="I40" s="1">
+        <v>107.47</v>
+      </c>
+      <c r="J40" s="1">
+        <v>103.87</v>
+      </c>
+      <c r="K40" s="1">
+        <v>109.01</v>
+      </c>
+      <c r="L40" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>106.78333333333335</v>
       </c>
       <c r="N40" s="1">
         <v>1000</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1" t="e">
+      <c r="O40" s="1">
+        <v>556.37</v>
+      </c>
+      <c r="P40" s="1">
+        <v>518.08000000000004</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>518.88</v>
+      </c>
+      <c r="R40" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1" t="e">
+        <v>531.11</v>
+      </c>
+      <c r="S40" s="1">
+        <v>546.73</v>
+      </c>
+      <c r="T40" s="1">
+        <v>552.33000000000004</v>
+      </c>
+      <c r="U40" s="1">
+        <v>545.26</v>
+      </c>
+      <c r="V40" s="1">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>548.10666666666668</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>128</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1" t="e">
+      <c r="E41" s="1">
+        <v>96.95</v>
+      </c>
+      <c r="F41" s="1">
+        <v>97.05</v>
+      </c>
+      <c r="G41" s="1">
+        <v>89.38</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1" t="e">
+        <v>94.46</v>
+      </c>
+      <c r="I41" s="1">
+        <v>102.14</v>
+      </c>
+      <c r="J41" s="1">
+        <v>103.65</v>
+      </c>
+      <c r="K41" s="1">
+        <v>102.97</v>
+      </c>
+      <c r="L41" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
+        <v>102.92</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D42" s="9">
+      <c r="D42" s="2">
         <v>256</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9" t="e">
+      <c r="E42" s="2">
+        <v>87.59</v>
+      </c>
+      <c r="F42" s="2">
+        <v>90.74</v>
+      </c>
+      <c r="G42" s="2">
+        <v>91.24</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="e">
+        <v>89.856666666666669</v>
+      </c>
+      <c r="I42" s="2">
+        <v>105.31</v>
+      </c>
+      <c r="J42" s="2">
+        <v>101.19</v>
+      </c>
+      <c r="K42" s="2">
+        <v>110.72</v>
+      </c>
+      <c r="L42" s="2">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
+        <v>105.74000000000001</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="O47" s="10"/>
+      <c r="O47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N31:V31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:V32"/>
     <mergeCell ref="D2:V2"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D17:L17"/>
@@ -1957,11 +2391,14 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:V18"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N31:V31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="E32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1975,7 +2412,7 @@
   <dimension ref="D2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,79 +2422,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:22" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="4">
+      <c r="D3" s="14">
         <v>2019</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="4">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="14">
         <v>2019</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
@@ -2159,7 +2596,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="e">
-        <f t="shared" ref="H7:H15" si="0">AVERAGE(E7:G7)</f>
+        <f t="shared" ref="H7:H14" si="0">AVERAGE(E7:G7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="1"/>
@@ -2313,20 +2750,20 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="2">
         <v>500</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="e">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9" t="e">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2385,127 +2822,127 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10" t="e">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10" t="e">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <v>256</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="e">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="e">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10" t="e">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10" t="e">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D17" s="5">
+      <c r="D17" s="15">
         <v>2020</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="N17" s="5">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="N17" s="15">
         <v>2020</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -2624,14 +3061,14 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="e">
-        <f t="shared" ref="R21:R28" si="6">AVERAGE(O21:Q21)</f>
+        <f t="shared" ref="R21:R26" si="6">AVERAGE(O21:Q21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="e">
-        <f t="shared" ref="V21:V28" si="7">AVERAGE(S21:U21)</f>
+        <f t="shared" ref="V21:V26" si="7">AVERAGE(S21:U21)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2761,20 +3198,20 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="2">
         <v>500</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9" t="e">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9" t="e">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2833,115 +3270,115 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D28" s="9">
+      <c r="D28" s="2">
         <v>256</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="e">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="e">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D31" s="2">
+      <c r="D31" s="11">
         <v>2021</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="N31" s="11">
         <v>2021</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3" t="s">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
@@ -3060,14 +3497,14 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="e">
-        <f t="shared" ref="R35:R42" si="10">AVERAGE(O35:Q35)</f>
+        <f t="shared" ref="R35:R40" si="10">AVERAGE(O35:Q35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="e">
-        <f t="shared" ref="V35:V42" si="11">AVERAGE(S35:U35)</f>
+        <f t="shared" ref="V35:V40" si="11">AVERAGE(S35:U35)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3197,20 +3634,20 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="2">
         <v>500</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9" t="e">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9" t="e">
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -3269,15 +3706,15 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
@@ -3297,47 +3734,44 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J59" s="11"/>
+      <c r="J59" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D2:V2"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="N31:V31"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="O32:R32"/>
@@ -3348,12 +3782,15 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:V18"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="N31:V31"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3366,8 +3803,8 @@
   </sheetPr>
   <dimension ref="D2:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,79 +3814,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:22" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="4">
+      <c r="D3" s="14">
         <v>2019</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="4">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="14">
         <v>2019</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
@@ -3568,14 +4005,14 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="e">
-        <f t="shared" ref="R7:R14" si="2">AVERAGE(O7:Q7)</f>
+        <f t="shared" ref="R7:R12" si="2">AVERAGE(O7:Q7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="e">
-        <f t="shared" ref="V7:V14" si="3">AVERAGE(S7:U7)</f>
+        <f t="shared" ref="V7:V12" si="3">AVERAGE(S7:U7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3705,20 +4142,20 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="2">
         <v>500</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="e">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9" t="e">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3777,115 +4214,115 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <v>256</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="e">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="e">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D17" s="5">
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="N17" s="15">
         <v>2020</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="N17" s="5">
-        <v>2020</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -3947,12 +4384,14 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1023.5</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="e">
+      <c r="H20" s="1">
         <f>AVERAGE(E20:G20)</f>
-        <v>#DIV/0!</v>
+        <v>1023.5</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -4004,14 +4443,14 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="e">
-        <f t="shared" ref="R21:R28" si="6">AVERAGE(O21:Q21)</f>
+        <f t="shared" ref="R21:R26" si="6">AVERAGE(O21:Q21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="e">
-        <f t="shared" ref="V21:V28" si="7">AVERAGE(S21:U21)</f>
+        <f t="shared" ref="V21:V26" si="7">AVERAGE(S21:U21)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4141,20 +4580,20 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="2">
         <v>500</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9" t="e">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9" t="e">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -4213,115 +4652,115 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D28" s="9">
+      <c r="D28" s="2">
         <v>256</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="e">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="e">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D31" s="2">
+      <c r="D31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="N31" s="11">
         <v>2021</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2">
-        <v>2021</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3" t="s">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
@@ -4440,14 +4879,14 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="e">
-        <f t="shared" ref="R35:R42" si="10">AVERAGE(O35:Q35)</f>
+        <f t="shared" ref="R35:R40" si="10">AVERAGE(O35:Q35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="e">
-        <f t="shared" ref="V35:V42" si="11">AVERAGE(S35:U35)</f>
+        <f t="shared" ref="V35:V40" si="11">AVERAGE(S35:U35)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4577,20 +5016,20 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="2">
         <v>500</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9" t="e">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9" t="e">
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -4649,80 +5088,80 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D42" s="9">
+      <c r="D42" s="2">
         <v>256</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9" t="e">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="e">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D2:V2"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="N31:V31"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="O32:R32"/>
@@ -4733,12 +5172,15 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:V18"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="N31:V31"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4751,8 +5193,8 @@
   </sheetPr>
   <dimension ref="C3:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4766,95 +5208,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="13">
+      <c r="C4" s="6">
         <v>2019</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="6">
         <v>8</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="7">
         <v>1299</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="13">
+      <c r="C5" s="6">
         <v>2020</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="6">
         <v>8</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="7">
         <v>1299</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="13">
+      <c r="C6" s="6">
         <v>2021</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="6">
         <v>10</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="6">
         <v>16</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="7">
         <v>2499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546A5224-B369-4030-A67D-42DF3F61A83E}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Project Data.xlsx
+++ b/Project Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carson Holland\Desktop\Spring 2022\Computer Architecture\Computer Architecture Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84BDCC4-B062-4223-B208-52AB84FAA957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761ABC1-8023-4C9B-B0F7-056CC191D58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D902FFAF-4A2D-476E-8EDF-524476670CED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D902FFAF-4A2D-476E-8EDF-524476670CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale.c" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Minecraft Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,9 +128,6 @@
     <t>2021 Chris'</t>
   </si>
   <si>
-    <t>(?TIME UNITS)</t>
-  </si>
-  <si>
     <t>Speed Up</t>
   </si>
   <si>
@@ -154,6 +150,9 @@
   </si>
   <si>
     <t>SpeedUp</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
 </sst>
 </file>
@@ -370,21 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,6 +379,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -456,7 +455,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -465,7 +473,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1254,7 +1271,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1263,19 +1289,46 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2060,7 +2113,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2788,7 +2850,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3346,7 +3417,16 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4411,6 +4491,1084 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ranksort.C --- Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time vs Thread Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2020</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$D$20:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$H$20:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>164.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>167.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23AC-4190-B45F-5502E7939219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2021</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$D$34:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$H$34:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>103.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-23AC-4190-B45F-5502E7939219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1605957823"/>
+        <c:axId val="1605956575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1605957823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605956575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1605956575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605957823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ranksort.c --- Data Count vs Execution Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2020</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$N$20:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$R$20:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-522B-4E20-9F95-7DE589FF6DE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2021</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$N$34:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ranksort.c'!$R$34:$R$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-522B-4E20-9F95-7DE589FF6DE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1605967807"/>
+        <c:axId val="1605964479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1605967807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605964479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1605964479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605967807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -4596,6 +5754,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -7293,6 +8531,1038 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7474,6 +9744,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEBA29A-5C19-2006-7B1D-FBF4BA6EB480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>838198</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59437B8A-B819-D0E1-69B1-7A438EA6D563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7784,8 +10131,8 @@
   </sheetPr>
   <dimension ref="A2:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7796,105 +10143,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23">
+      <c r="B3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="18">
         <v>2019</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="N3" s="23">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="N3" s="18">
         <v>2019</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="X3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="X3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="24"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="X4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="17"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="X4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="24"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7951,10 +10298,10 @@
         <v>3</v>
       </c>
       <c r="X5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="Z5" s="14" t="s">
         <v>3</v>
@@ -8594,75 +10941,75 @@
       <c r="V15" s="3"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="24" t="s">
+      <c r="B17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="24">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="N17" s="19">
         <v>2020</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="X17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y17" s="17"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="X17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="24"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="17"/>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19" t="s">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="X18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y18" s="17"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="X18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
@@ -8670,10 +11017,10 @@
         <v>4.143950401568814</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -8730,10 +11077,10 @@
         <v>3</v>
       </c>
       <c r="X19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="Z19" s="14" t="s">
         <v>3</v>
@@ -9392,75 +11739,75 @@
       <c r="V29" s="3"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="20" t="s">
+      <c r="B31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="N31" s="20">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="N31" s="21">
         <v>2021</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="X31" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y31" s="17"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="X31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y31" s="24"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="17"/>
+      <c r="B32" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="24"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19" t="s">
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="X32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y32" s="17"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="X32" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y32" s="24"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
@@ -9468,10 +11815,10 @@
         <v>1.38144600533238</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -9528,10 +11875,10 @@
         <v>3</v>
       </c>
       <c r="X33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="Y33" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="Z33" s="14" t="s">
         <v>3</v>
@@ -10193,11 +12540,31 @@
       <c r="O47" s="3"/>
     </row>
     <row r="51" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="N31:V31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="E32:H32"/>
     <mergeCell ref="D2:V2"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D17:L17"/>
@@ -10209,26 +12576,6 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:V18"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N31:V31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10254,79 +12601,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:22" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <v>2019</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="N3" s="23">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="N3" s="18">
         <v>2019</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
@@ -10725,56 +13072,56 @@
       <c r="V15" s="3"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D17" s="24">
+      <c r="D17" s="19">
         <v>2020</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="24">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="N17" s="19">
         <v>2020</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19" t="s">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -11161,56 +13508,56 @@
       <c r="V29" s="3"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D31" s="20">
+      <c r="D31" s="21">
         <v>2021</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="N31" s="20">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="N31" s="21">
         <v>2021</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19" t="s">
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
@@ -11604,6 +13951,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="N31:V31"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="O32:R32"/>
@@ -11614,15 +13970,6 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:V18"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="D2:V2"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="N31:V31"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11635,8 +13982,8 @@
   </sheetPr>
   <dimension ref="D2:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11646,7 +13993,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:22" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="25"/>
@@ -11669,56 +14016,56 @@
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <v>2019</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="N3" s="23">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="N3" s="18">
         <v>2019</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
@@ -12105,56 +14452,56 @@
       <c r="V15" s="3"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="24">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="N17" s="19">
         <v>2020</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19" t="s">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -12184,8 +14531,8 @@
       <c r="L19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>6</v>
+      <c r="N19" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>0</v>
@@ -12216,12 +14563,14 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>164.89</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="e">
+      <c r="H20" s="1">
         <f>AVERAGE(E20:G20)</f>
-        <v>#DIV/0!</v>
+        <v>164.89</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -12233,12 +14582,18 @@
       <c r="N20" s="1">
         <v>10</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="e">
+      <c r="O20" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="R20" s="1">
         <f>AVERAGE(O20:Q20)</f>
-        <v>#DIV/0!</v>
+        <v>1.3833333333333335</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -12252,12 +14607,14 @@
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>163.24</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="e">
+      <c r="H21" s="1">
         <f t="shared" ref="H21:H28" si="4">AVERAGE(E21:G21)</f>
-        <v>#DIV/0!</v>
+        <v>163.24</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -12269,12 +14626,16 @@
       <c r="N21" s="1">
         <v>25</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.32</v>
+      </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="e">
+      <c r="R21" s="1">
         <f t="shared" ref="R21:R26" si="6">AVERAGE(O21:Q21)</f>
-        <v>#DIV/0!</v>
+        <v>1.33</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -12288,12 +14649,14 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>167.51</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="e">
+      <c r="H22" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>167.51</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -12305,12 +14668,14 @@
       <c r="N22" s="1">
         <v>50</v>
       </c>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1">
+        <v>1.75</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="e">
+      <c r="R22" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.75</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -12324,12 +14689,14 @@
       <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>168.68</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="e">
+      <c r="H23" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>168.68</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -12341,12 +14708,14 @@
       <c r="N23" s="1">
         <v>100</v>
       </c>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1">
+        <v>4.93</v>
+      </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="e">
+      <c r="R23" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>4.93</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -12360,12 +14729,14 @@
       <c r="D24" s="1">
         <v>16</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>160.47</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="e">
+      <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>160.47</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -12377,12 +14748,14 @@
       <c r="N24" s="1">
         <v>250</v>
       </c>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1">
+        <v>11.96</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="e">
+      <c r="R24" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>11.96</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -12396,12 +14769,14 @@
       <c r="D25" s="1">
         <v>32</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>164.72</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="e">
+      <c r="H25" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>164.72</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -12413,12 +14788,14 @@
       <c r="N25" s="2">
         <v>500</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>40.29</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="e">
+      <c r="R25" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>40.29</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -12432,12 +14809,14 @@
       <c r="D26" s="1">
         <v>64</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>166.3</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="e">
+      <c r="H26" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>166.3</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -12449,12 +14828,14 @@
       <c r="N26" s="1">
         <v>1000</v>
       </c>
-      <c r="O26" s="1"/>
+      <c r="O26" s="1">
+        <v>164.2</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="e">
+      <c r="R26" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>164.2</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -12468,12 +14849,14 @@
       <c r="D27" s="1">
         <v>128</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>162.57</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="e">
+      <c r="H27" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>162.57</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -12496,12 +14879,14 @@
       <c r="D28" s="2">
         <v>256</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>168.56</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2" t="e">
+      <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>168.56</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -12541,56 +14926,56 @@
       <c r="V29" s="3"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="N31" s="20">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="N31" s="21">
         <v>2021</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19" t="s">
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
@@ -12620,8 +15005,8 @@
       <c r="L33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>6</v>
+      <c r="N33" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>0</v>
@@ -12652,12 +15037,14 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>103.41</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="e">
+      <c r="H34" s="1">
         <f>AVERAGE(E34:G34)</f>
-        <v>#DIV/0!</v>
+        <v>103.41</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -12669,12 +15056,14 @@
       <c r="N34" s="1">
         <v>10</v>
       </c>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1">
+        <v>0.97</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="e">
+      <c r="R34" s="1">
         <f>AVERAGE(O34:Q34)</f>
-        <v>#DIV/0!</v>
+        <v>0.97</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -12688,12 +15077,14 @@
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>95.65</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="e">
+      <c r="H35" s="1">
         <f t="shared" ref="H35:H42" si="8">AVERAGE(E35:G35)</f>
-        <v>#DIV/0!</v>
+        <v>95.65</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -12705,12 +15096,14 @@
       <c r="N35" s="1">
         <v>25</v>
       </c>
-      <c r="O35" s="1"/>
+      <c r="O35" s="1">
+        <v>1.66</v>
+      </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="e">
+      <c r="R35" s="1">
         <f t="shared" ref="R35:R40" si="10">AVERAGE(O35:Q35)</f>
-        <v>#DIV/0!</v>
+        <v>1.66</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -12724,12 +15117,14 @@
       <c r="D36" s="1">
         <v>4</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>102.22</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="e">
+      <c r="H36" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>102.22</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -12741,12 +15136,14 @@
       <c r="N36" s="1">
         <v>50</v>
       </c>
-      <c r="O36" s="1"/>
+      <c r="O36" s="1">
+        <v>1.85</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="e">
+      <c r="R36" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.85</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -12760,12 +15157,14 @@
       <c r="D37" s="1">
         <v>8</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <v>104.55</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="e">
+      <c r="H37" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>104.55</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -12777,12 +15176,14 @@
       <c r="N37" s="1">
         <v>100</v>
       </c>
-      <c r="O37" s="1"/>
+      <c r="O37" s="1">
+        <v>5.61</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="e">
+      <c r="R37" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>5.61</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -12796,12 +15197,14 @@
       <c r="D38" s="1">
         <v>16</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1">
+        <v>91.52</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="e">
+      <c r="H38" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>91.52</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -12813,12 +15216,14 @@
       <c r="N38" s="1">
         <v>250</v>
       </c>
-      <c r="O38" s="1"/>
+      <c r="O38" s="1">
+        <v>20.53</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="e">
+      <c r="R38" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>20.53</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -12832,12 +15237,14 @@
       <c r="D39" s="1">
         <v>32</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>101.14</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="e">
+      <c r="H39" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>101.14</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -12849,12 +15256,14 @@
       <c r="N39" s="2">
         <v>500</v>
       </c>
-      <c r="O39" s="2"/>
+      <c r="O39" s="2">
+        <v>27.03</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="e">
+      <c r="R39" s="2">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>27.03</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -12868,12 +15277,14 @@
       <c r="D40" s="1">
         <v>64</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>95.52</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="e">
+      <c r="H40" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>95.52</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -12885,12 +15296,14 @@
       <c r="N40" s="1">
         <v>1000</v>
       </c>
-      <c r="O40" s="1"/>
+      <c r="O40" s="1">
+        <v>108.35</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1" t="e">
+      <c r="R40" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>108.35</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -12904,12 +15317,14 @@
       <c r="D41" s="1">
         <v>128</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>106.89</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="e">
+      <c r="H41" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>106.89</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -12932,12 +15347,14 @@
       <c r="D42" s="2">
         <v>256</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>98.8</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>98.8</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -12978,7 +15395,7 @@
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -12992,6 +15409,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="N31:V31"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="O32:R32"/>
@@ -13002,17 +15428,9 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="S18:V18"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="D2:V2"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="N31:V31"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
